--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\문서\GitHub\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14E66A53-8B7C-4B51-9827-36A67929666B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D36F3E-3DB7-4554-BDDD-27F0A272D8C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="315" yWindow="435" windowWidth="18165" windowHeight="14250" xr2:uid="{1175C018-922B-4173-AE5F-597206527C76}"/>
+    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250" xr2:uid="{1175C018-922B-4173-AE5F-597206527C76}"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -391,6 +391,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -413,9 +416,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -735,7 +735,7 @@
   <dimension ref="B2:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="P30" sqref="P30"/>
+      <selection activeCell="K9" sqref="K9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,15 +786,15 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -854,11 +854,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -988,7 +988,7 @@
       <c r="E8" s="17"/>
       <c r="F8" s="18"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
+      <c r="H8" s="14"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1201,10 +1201,10 @@
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1227,6 +1227,17 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:X3"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
@@ -1234,17 +1245,6 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:X3"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1321,15 +1321,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -1423,11 +1423,11 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1911,10 +1911,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1948,6 +1948,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -1956,16 +1966,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2041,15 +2041,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2143,11 +2143,11 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2631,10 +2631,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2668,6 +2668,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2681,11 +2686,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\문서\GitHub\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D7D36F3E-3DB7-4554-BDDD-27F0A272D8C7}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250" xr2:uid="{1175C018-922B-4173-AE5F-597206527C76}"/>
+    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -135,7 +134,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -391,9 +390,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -416,6 +412,9 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -731,11 +730,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A64C3DAE-41DA-4605-BF71-AEC2C0234979}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K9" sqref="K9"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -786,15 +785,15 @@
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -854,11 +853,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1025,7 +1024,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
+      <c r="O9" s="14"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1201,10 +1200,10 @@
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1227,17 +1226,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:X3"/>
     <mergeCell ref="C13:F13"/>
     <mergeCell ref="C14:F14"/>
     <mergeCell ref="C15:F15"/>
@@ -1245,6 +1233,17 @@
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="K3:O3"/>
+    <mergeCell ref="R3:V3"/>
+    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="C9:F9"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1253,7 +1252,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA4934E0-156B-43E0-9772-39E3B6B26945}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1321,15 +1320,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -1423,11 +1422,11 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1911,10 +1910,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1948,16 +1947,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -1966,6 +1955,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1973,7 +1972,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4658BEE6-5011-4D17-AC99-C3FADB976799}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2041,15 +2040,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="19" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="21" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="23"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2143,11 +2142,11 @@
       <c r="AK4" s="8"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="20"/>
+      <c r="C5" s="24"/>
+      <c r="D5" s="25"/>
+      <c r="E5" s="25"/>
+      <c r="F5" s="26"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2631,10 +2630,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="27"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2668,11 +2667,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2686,6 +2680,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2693,7 +2692,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CF2C7C6C-6E10-402A-8F3A-98450D46889B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\문서\GitHub\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8FA0C2-95D4-4706-939B-83F1C33E31FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250"/>
+    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -134,8 +135,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -151,8 +152,16 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="5" tint="0.39997558519241921"/>
+      <name val="맑은 고딕"/>
+      <family val="2"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -174,6 +183,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -332,7 +347,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="30">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -416,6 +431,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -730,11 +751,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA16"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+      <selection activeCell="L6" sqref="L6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -928,12 +949,12 @@
       <c r="F6" s="18"/>
       <c r="G6" s="14"/>
       <c r="H6" s="14"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
+      <c r="I6" s="14"/>
+      <c r="J6" s="14"/>
+      <c r="K6" s="28"/>
+      <c r="L6" s="28"/>
+      <c r="M6" s="14"/>
+      <c r="N6" s="29"/>
       <c r="O6" s="1"/>
       <c r="P6" s="1"/>
       <c r="Q6" s="1"/>
@@ -1252,7 +1273,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1972,7 +1993,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2692,7 +2713,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\문서\GitHub\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2C8FA0C2-95D4-4706-939B-83F1C33E31FF}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD898414-9718-40A2-9789-0C1AC6BE531B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7665" yWindow="690" windowWidth="18165" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159" uniqueCount="42">
   <si>
     <t>내용</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -129,6 +129,78 @@
   </si>
   <si>
     <t>1주차</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>시스템 기획</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>배경 원화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>장비 원화</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>체력바 작업</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>버튼 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 아이콘 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 아이콘 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물 아이콘 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 아이콘 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전장 아이콘 UI</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>주인공 공격 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>적 각종 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보스 각종 모션</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>훈련 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>무기 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>보물 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상점 프로그래밍</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>전장 프로그래밍</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -161,7 +233,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="15">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -192,8 +264,62 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="13">
+  <borders count="16">
     <border>
       <left/>
       <right/>
@@ -341,13 +467,58 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="62">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -366,9 +537,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -396,46 +564,145 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -752,10 +1019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="B2:AA16"/>
+  <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="L6" sqref="L6"/>
+      <selection activeCell="AD16" sqref="AD16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -767,21 +1034,21 @@
   <sheetData>
     <row r="2" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="18"/>
-      <c r="I3" s="16"/>
+      <c r="H3" s="17"/>
+      <c r="I3" s="17"/>
       <c r="J3" s="18"/>
       <c r="K3" s="16" t="s">
         <v>9</v>
@@ -789,32 +1056,32 @@
       <c r="L3" s="17"/>
       <c r="M3" s="17"/>
       <c r="N3" s="17"/>
-      <c r="O3" s="18"/>
-      <c r="P3" s="5"/>
-      <c r="Q3" s="6"/>
+      <c r="O3" s="17"/>
+      <c r="P3" s="17"/>
+      <c r="Q3" s="18"/>
       <c r="R3" s="16" t="s">
         <v>10</v>
       </c>
       <c r="S3" s="17"/>
       <c r="T3" s="17"/>
       <c r="U3" s="17"/>
-      <c r="V3" s="18"/>
-      <c r="W3" s="16"/>
+      <c r="V3" s="17"/>
+      <c r="W3" s="17"/>
       <c r="X3" s="18"/>
       <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -869,16 +1136,16 @@
       <c r="X4" s="3">
         <v>30</v>
       </c>
-      <c r="Y4" s="7">
+      <c r="Y4" s="6">
         <v>31</v>
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -938,25 +1205,25 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="28" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
-      <c r="H6" s="14"/>
-      <c r="I6" s="14"/>
-      <c r="J6" s="14"/>
-      <c r="K6" s="28"/>
-      <c r="L6" s="28"/>
-      <c r="M6" s="14"/>
-      <c r="N6" s="29"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
+      <c r="D6" s="34"/>
+      <c r="E6" s="34"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="60"/>
+      <c r="H6" s="60"/>
+      <c r="I6" s="60"/>
+      <c r="J6" s="60"/>
+      <c r="K6" s="60"/>
+      <c r="L6" s="60"/>
+      <c r="M6" s="60"/>
+      <c r="N6" s="61"/>
+      <c r="O6" s="60"/>
+      <c r="P6" s="60"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -965,18 +1232,18 @@
       <c r="V6" s="1"/>
       <c r="W6" s="1"/>
       <c r="X6" s="1"/>
-      <c r="Y6" s="10"/>
+      <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="3" t="s">
-        <v>15</v>
-      </c>
-      <c r="C7" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="B7" s="28" t="s">
+        <v>13</v>
+      </c>
+      <c r="C7" s="33" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" s="34"/>
+      <c r="E7" s="34"/>
+      <c r="F7" s="35"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -998,17 +1265,17 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="C8" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="B8" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>19</v>
+      </c>
+      <c r="D8" s="37"/>
+      <c r="E8" s="37"/>
+      <c r="F8" s="38"/>
       <c r="G8" s="1"/>
-      <c r="H8" s="14"/>
+      <c r="H8" s="1"/>
       <c r="I8" s="1"/>
       <c r="J8" s="1"/>
       <c r="K8" s="1"/>
@@ -1028,15 +1295,15 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="B9" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C9" s="36" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="38"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1045,7 +1312,7 @@
       <c r="L9" s="1"/>
       <c r="M9" s="1"/>
       <c r="N9" s="1"/>
-      <c r="O9" s="14"/>
+      <c r="O9" s="1"/>
       <c r="P9" s="1"/>
       <c r="Q9" s="1"/>
       <c r="R9" s="1"/>
@@ -1056,19 +1323,19 @@
       <c r="W9" s="1"/>
       <c r="X9" s="1"/>
       <c r="Y9" s="1"/>
-      <c r="Z9" s="8"/>
-      <c r="AA9" s="8"/>
+      <c r="Z9" s="7"/>
+      <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="C10" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="B10" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>26</v>
+      </c>
+      <c r="D10" s="37"/>
+      <c r="E10" s="37"/>
+      <c r="F10" s="38"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1090,11 +1357,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="B11" s="29" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="38"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1116,13 +1387,17 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="B12" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="39" t="s">
+        <v>28</v>
+      </c>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="41"/>
       <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
+      <c r="H12" s="15"/>
       <c r="I12" s="1"/>
       <c r="J12" s="1"/>
       <c r="K12" s="1"/>
@@ -1142,21 +1417,20 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
-      <c r="G13" s="1"/>
+      <c r="B13" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C13" s="39" t="s">
+        <v>30</v>
+      </c>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="41"/>
       <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
       <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
       <c r="Q13" s="1"/>
       <c r="R13" s="1"/>
       <c r="S13" s="1"/>
@@ -1168,13 +1442,17 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="B14" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C14" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="41"/>
       <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
+      <c r="H14" s="15"/>
       <c r="I14" s="1"/>
       <c r="J14" s="1"/>
       <c r="K14" s="1"/>
@@ -1194,21 +1472,22 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
-      <c r="G15" s="1"/>
+      <c r="B15" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C15" s="42" t="s">
+        <v>31</v>
+      </c>
+      <c r="D15" s="43"/>
+      <c r="E15" s="43"/>
+      <c r="F15" s="44"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
       <c r="M15" s="1"/>
       <c r="N15" s="1"/>
       <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
       <c r="Q15" s="1"/>
       <c r="R15" s="1"/>
       <c r="S15" s="1"/>
@@ -1220,19 +1499,21 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="B16" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C16" s="42" t="s">
+        <v>32</v>
+      </c>
+      <c r="D16" s="43"/>
+      <c r="E16" s="43"/>
+      <c r="F16" s="44"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
       <c r="J16" s="1"/>
       <c r="K16" s="1"/>
       <c r="L16" s="1"/>
       <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
       <c r="O16" s="1"/>
       <c r="P16" s="1"/>
       <c r="Q16" s="1"/>
@@ -1245,26 +1526,303 @@
       <c r="X16" s="1"/>
       <c r="Y16" s="1"/>
     </row>
+    <row r="17" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B17" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17" s="45" t="s">
+        <v>33</v>
+      </c>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="47"/>
+      <c r="G17" s="1"/>
+      <c r="H17" s="1"/>
+      <c r="I17" s="1"/>
+      <c r="J17" s="1"/>
+      <c r="K17" s="1"/>
+      <c r="L17" s="1"/>
+      <c r="M17" s="1"/>
+      <c r="N17" s="1"/>
+      <c r="O17" s="15"/>
+      <c r="P17" s="1"/>
+      <c r="Q17" s="1"/>
+      <c r="R17" s="1"/>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
+      <c r="W17" s="1"/>
+      <c r="X17" s="1"/>
+      <c r="Y17" s="1"/>
+    </row>
+    <row r="18" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B18" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C18" s="48" t="s">
+        <v>34</v>
+      </c>
+      <c r="D18" s="49"/>
+      <c r="E18" s="49"/>
+      <c r="F18" s="50"/>
+      <c r="G18" s="1"/>
+      <c r="H18" s="1"/>
+      <c r="I18" s="1"/>
+      <c r="J18" s="1"/>
+      <c r="K18" s="1"/>
+      <c r="L18" s="1"/>
+      <c r="M18" s="1"/>
+      <c r="N18" s="1"/>
+      <c r="O18" s="1"/>
+      <c r="P18" s="1"/>
+      <c r="Q18" s="1"/>
+      <c r="R18" s="1"/>
+      <c r="S18" s="1"/>
+      <c r="T18" s="1"/>
+      <c r="U18" s="1"/>
+      <c r="V18" s="1"/>
+      <c r="W18" s="1"/>
+      <c r="X18" s="1"/>
+      <c r="Y18" s="1"/>
+    </row>
+    <row r="19" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B19" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="D19" s="49"/>
+      <c r="E19" s="49"/>
+      <c r="F19" s="50"/>
+      <c r="G19" s="1"/>
+      <c r="H19" s="1"/>
+      <c r="I19" s="1"/>
+      <c r="J19" s="1"/>
+      <c r="K19" s="1"/>
+      <c r="L19" s="1"/>
+      <c r="M19" s="1"/>
+      <c r="N19" s="1"/>
+      <c r="O19" s="1"/>
+      <c r="P19" s="1"/>
+      <c r="Q19" s="1"/>
+      <c r="R19" s="1"/>
+      <c r="S19" s="1"/>
+      <c r="T19" s="1"/>
+      <c r="U19" s="1"/>
+      <c r="V19" s="1"/>
+      <c r="W19" s="1"/>
+      <c r="X19" s="1"/>
+      <c r="Y19" s="1"/>
+    </row>
+    <row r="20" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B20" s="31" t="s">
+        <v>17</v>
+      </c>
+      <c r="C20" s="51" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="52"/>
+      <c r="E20" s="52"/>
+      <c r="F20" s="53"/>
+      <c r="G20" s="1"/>
+      <c r="H20" s="1"/>
+      <c r="I20" s="1"/>
+      <c r="J20" s="1"/>
+      <c r="K20" s="1"/>
+      <c r="L20" s="1"/>
+      <c r="M20" s="1"/>
+      <c r="N20" s="1"/>
+      <c r="O20" s="15"/>
+      <c r="P20" s="1"/>
+      <c r="Q20" s="1"/>
+      <c r="R20" s="1"/>
+      <c r="S20" s="1"/>
+      <c r="T20" s="1"/>
+      <c r="U20" s="1"/>
+      <c r="V20" s="1"/>
+      <c r="W20" s="1"/>
+      <c r="X20" s="1"/>
+      <c r="Y20" s="1"/>
+    </row>
+    <row r="21" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B21" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C21" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="56"/>
+      <c r="G21" s="1"/>
+      <c r="H21" s="1"/>
+      <c r="I21" s="1"/>
+      <c r="J21" s="1"/>
+      <c r="K21" s="1"/>
+      <c r="L21" s="1"/>
+      <c r="M21" s="1"/>
+      <c r="N21" s="1"/>
+      <c r="O21" s="1"/>
+      <c r="P21" s="1"/>
+      <c r="Q21" s="1"/>
+      <c r="R21" s="1"/>
+      <c r="S21" s="1"/>
+      <c r="T21" s="1"/>
+      <c r="U21" s="1"/>
+      <c r="V21" s="1"/>
+      <c r="W21" s="1"/>
+      <c r="X21" s="1"/>
+      <c r="Y21" s="1"/>
+    </row>
+    <row r="22" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B22" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C22" s="54" t="s">
+        <v>38</v>
+      </c>
+      <c r="D22" s="55"/>
+      <c r="E22" s="55"/>
+      <c r="F22" s="56"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="K22" s="1"/>
+      <c r="L22" s="1"/>
+      <c r="M22" s="1"/>
+      <c r="N22" s="1"/>
+      <c r="O22" s="1"/>
+      <c r="P22" s="1"/>
+      <c r="Q22" s="1"/>
+      <c r="R22" s="1"/>
+      <c r="S22" s="1"/>
+      <c r="T22" s="1"/>
+      <c r="U22" s="1"/>
+      <c r="V22" s="1"/>
+      <c r="W22" s="1"/>
+      <c r="X22" s="1"/>
+      <c r="Y22" s="1"/>
+    </row>
+    <row r="23" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B23" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23" s="57" t="s">
+        <v>39</v>
+      </c>
+      <c r="D23" s="58"/>
+      <c r="E23" s="58"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="1"/>
+      <c r="H23" s="1"/>
+      <c r="I23" s="1"/>
+      <c r="J23" s="1"/>
+      <c r="K23" s="1"/>
+      <c r="L23" s="1"/>
+      <c r="M23" s="1"/>
+      <c r="N23" s="1"/>
+      <c r="O23" s="15"/>
+      <c r="P23" s="1"/>
+      <c r="Q23" s="1"/>
+      <c r="R23" s="1"/>
+      <c r="S23" s="1"/>
+      <c r="T23" s="1"/>
+      <c r="U23" s="1"/>
+      <c r="V23" s="1"/>
+      <c r="W23" s="1"/>
+      <c r="X23" s="1"/>
+      <c r="Y23" s="1"/>
+    </row>
+    <row r="24" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B24" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="54" t="s">
+        <v>40</v>
+      </c>
+      <c r="D24" s="55"/>
+      <c r="E24" s="55"/>
+      <c r="F24" s="56"/>
+      <c r="G24" s="1"/>
+      <c r="H24" s="1"/>
+      <c r="I24" s="1"/>
+      <c r="J24" s="1"/>
+      <c r="K24" s="1"/>
+      <c r="L24" s="1"/>
+      <c r="M24" s="1"/>
+      <c r="N24" s="1"/>
+      <c r="O24" s="1"/>
+      <c r="P24" s="1"/>
+      <c r="Q24" s="1"/>
+      <c r="R24" s="1"/>
+      <c r="S24" s="1"/>
+      <c r="T24" s="1"/>
+      <c r="U24" s="1"/>
+      <c r="V24" s="1"/>
+      <c r="W24" s="1"/>
+      <c r="X24" s="1"/>
+      <c r="Y24" s="1"/>
+    </row>
+    <row r="25" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B25" s="32" t="s">
+        <v>18</v>
+      </c>
+      <c r="C25" s="54" t="s">
+        <v>41</v>
+      </c>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="56"/>
+      <c r="G25" s="1"/>
+      <c r="H25" s="1"/>
+      <c r="I25" s="1"/>
+      <c r="J25" s="1"/>
+      <c r="K25" s="1"/>
+      <c r="L25" s="1"/>
+      <c r="M25" s="1"/>
+      <c r="N25" s="1"/>
+      <c r="O25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="1"/>
+      <c r="R25" s="1"/>
+      <c r="S25" s="1"/>
+      <c r="T25" s="1"/>
+      <c r="U25" s="1"/>
+      <c r="V25" s="1"/>
+      <c r="W25" s="1"/>
+      <c r="X25" s="1"/>
+      <c r="Y25" s="1"/>
+    </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
+  <mergeCells count="25">
+    <mergeCell ref="C25:F25"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="G3:J3"/>
+    <mergeCell ref="C20:F20"/>
+    <mergeCell ref="C21:F21"/>
+    <mergeCell ref="C22:F22"/>
+    <mergeCell ref="C23:F23"/>
+    <mergeCell ref="C24:F24"/>
+    <mergeCell ref="C8:F8"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="K3:Q3"/>
+    <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="K3:O3"/>
-    <mergeCell ref="R3:V3"/>
-    <mergeCell ref="W3:X3"/>
+    <mergeCell ref="C18:F18"/>
+    <mergeCell ref="C19:F19"/>
     <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C8:F8"/>
-    <mergeCell ref="C9:F9"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1289,16 +1847,16 @@
   <sheetData>
     <row r="2" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
@@ -1341,15 +1899,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -1440,14 +1998,14 @@
       <c r="AJ4" s="3">
         <v>30</v>
       </c>
-      <c r="AK4" s="8"/>
+      <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -1532,10 +2090,10 @@
       <c r="AH5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -1549,7 +2107,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -1931,10 +2489,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -1968,6 +2526,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -1976,16 +2544,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2009,16 +2567,16 @@
   <sheetData>
     <row r="2" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="2"/>
-      <c r="D2" s="11"/>
-      <c r="E2" s="11"/>
-      <c r="F2" s="11"/>
+      <c r="D2" s="10"/>
+      <c r="E2" s="10"/>
+      <c r="F2" s="10"/>
     </row>
     <row r="3" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B3" s="9"/>
-      <c r="C3" s="9"/>
-      <c r="D3" s="9"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8"/>
+      <c r="E3" s="11"/>
+      <c r="F3" s="12"/>
       <c r="G3" s="16" t="s">
         <v>23</v>
       </c>
@@ -2061,15 +2619,15 @@
       <c r="AJ3" s="18"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="19" t="s">
+      <c r="B4" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="21" t="s">
+      <c r="C4" s="22" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="24"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2160,14 +2718,14 @@
       <c r="AJ4" s="3">
         <v>30</v>
       </c>
-      <c r="AK4" s="8"/>
+      <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="20"/>
-      <c r="C5" s="24"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="26"/>
+      <c r="B5" s="21"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="26"/>
+      <c r="E5" s="26"/>
+      <c r="F5" s="27"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2252,10 +2810,10 @@
       <c r="AH5" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="AI5" s="15" t="s">
+      <c r="AI5" s="14" t="s">
         <v>4</v>
       </c>
-      <c r="AJ5" s="15" t="s">
+      <c r="AJ5" s="14" t="s">
         <v>5</v>
       </c>
     </row>
@@ -2269,7 +2827,7 @@
       <c r="D6" s="17"/>
       <c r="E6" s="17"/>
       <c r="F6" s="18"/>
-      <c r="G6" s="14"/>
+      <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
       <c r="J6" s="1"/>
@@ -2651,10 +3209,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
+      <c r="C16" s="19"/>
+      <c r="D16" s="19"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="19"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2688,6 +3246,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2701,11 +3264,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BD898414-9718-40A2-9789-0C1AC6BE531B}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547436D-CD6C-4FCD-8EBC-252017EE3794}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -567,42 +567,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -616,87 +580,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="1" xfId="0" applyFill="1" applyBorder="1">
@@ -704,6 +587,123 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1022,7 @@
   <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AD16" sqref="AD16"/>
+      <selection activeCell="Q7" sqref="Q7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,44 +1044,44 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="18"/>
-      <c r="K3" s="16" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="17"/>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="18"/>
-      <c r="R3" s="16" t="s">
+      <c r="L3" s="33"/>
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="34"/>
+      <c r="R3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="17"/>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="18"/>
+      <c r="S3" s="33"/>
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="34"/>
       <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -1141,11 +1141,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1205,25 +1205,25 @@
       </c>
     </row>
     <row r="6" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B6" s="28" t="s">
+      <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="33" t="s">
+      <c r="C6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34"/>
-      <c r="F6" s="35"/>
-      <c r="G6" s="60"/>
-      <c r="H6" s="60"/>
-      <c r="I6" s="60"/>
-      <c r="J6" s="60"/>
-      <c r="K6" s="60"/>
-      <c r="L6" s="60"/>
-      <c r="M6" s="60"/>
-      <c r="N6" s="61"/>
-      <c r="O6" s="60"/>
-      <c r="P6" s="60"/>
+      <c r="D6" s="53"/>
+      <c r="E6" s="53"/>
+      <c r="F6" s="54"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="21"/>
+      <c r="K6" s="21"/>
+      <c r="L6" s="21"/>
+      <c r="M6" s="21"/>
+      <c r="N6" s="22"/>
+      <c r="O6" s="21"/>
+      <c r="P6" s="21"/>
       <c r="Q6" s="1"/>
       <c r="R6" s="1"/>
       <c r="S6" s="1"/>
@@ -1235,15 +1235,15 @@
       <c r="Y6" s="9"/>
     </row>
     <row r="7" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B7" s="28" t="s">
+      <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="33" t="s">
+      <c r="C7" s="52" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="34"/>
-      <c r="E7" s="34"/>
-      <c r="F7" s="35"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
+      <c r="F7" s="54"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1254,7 +1254,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="Q7" s="21"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1265,15 +1265,15 @@
       <c r="Y7" s="1"/>
     </row>
     <row r="8" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B8" s="29" t="s">
+      <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="36" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="37"/>
-      <c r="E8" s="37"/>
-      <c r="F8" s="38"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1295,15 +1295,15 @@
       <c r="Y8" s="1"/>
     </row>
     <row r="9" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B9" s="29" t="s">
+      <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="36" t="s">
+      <c r="C9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="38"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1327,15 +1327,15 @@
       <c r="AA9" s="7"/>
     </row>
     <row r="10" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B10" s="29" t="s">
+      <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="36" t="s">
+      <c r="C10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="37"/>
-      <c r="E10" s="37"/>
-      <c r="F10" s="38"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1357,15 +1357,15 @@
       <c r="Y10" s="1"/>
     </row>
     <row r="11" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B11" s="29" t="s">
+      <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="36" t="s">
+      <c r="C11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="38"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1387,15 +1387,15 @@
       <c r="Y11" s="1"/>
     </row>
     <row r="12" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="39" t="s">
+      <c r="C12" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="40"/>
-      <c r="E12" s="40"/>
-      <c r="F12" s="41"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="31"/>
       <c r="G12" s="1"/>
       <c r="H12" s="15"/>
       <c r="I12" s="1"/>
@@ -1417,15 +1417,15 @@
       <c r="Y12" s="1"/>
     </row>
     <row r="13" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="39" t="s">
+      <c r="C13" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="40"/>
-      <c r="E13" s="40"/>
-      <c r="F13" s="41"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="31"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1442,15 +1442,15 @@
       <c r="Y13" s="1"/>
     </row>
     <row r="14" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B14" s="30" t="s">
+      <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="39" t="s">
+      <c r="C14" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="40"/>
-      <c r="E14" s="40"/>
-      <c r="F14" s="41"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="31"/>
       <c r="G14" s="1"/>
       <c r="H14" s="15"/>
       <c r="I14" s="1"/>
@@ -1472,15 +1472,15 @@
       <c r="Y14" s="1"/>
     </row>
     <row r="15" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="30" t="s">
+      <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="42" t="s">
+      <c r="C15" s="26" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="43"/>
-      <c r="E15" s="43"/>
-      <c r="F15" s="44"/>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="28"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1499,15 +1499,15 @@
       <c r="Y15" s="1"/>
     </row>
     <row r="16" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B16" s="30" t="s">
+      <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="42" t="s">
+      <c r="C16" s="26" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="43"/>
-      <c r="E16" s="43"/>
-      <c r="F16" s="44"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="27"/>
+      <c r="F16" s="28"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
@@ -1527,15 +1527,15 @@
       <c r="Y16" s="1"/>
     </row>
     <row r="17" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B17" s="30" t="s">
+      <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="45" t="s">
+      <c r="C17" s="58" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="46"/>
-      <c r="E17" s="46"/>
-      <c r="F17" s="47"/>
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="60"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1557,15 +1557,15 @@
       <c r="Y17" s="1"/>
     </row>
     <row r="18" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B18" s="31" t="s">
+      <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="48" t="s">
+      <c r="C18" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="49"/>
-      <c r="E18" s="49"/>
-      <c r="F18" s="50"/>
+      <c r="D18" s="56"/>
+      <c r="E18" s="56"/>
+      <c r="F18" s="57"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1587,15 +1587,15 @@
       <c r="Y18" s="1"/>
     </row>
     <row r="19" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B19" s="31" t="s">
+      <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="48" t="s">
+      <c r="C19" s="55" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="49"/>
-      <c r="E19" s="49"/>
-      <c r="F19" s="50"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="56"/>
+      <c r="F19" s="57"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1617,15 +1617,15 @@
       <c r="Y19" s="1"/>
     </row>
     <row r="20" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B20" s="31" t="s">
+      <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="51" t="s">
+      <c r="C20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="52"/>
-      <c r="E20" s="52"/>
-      <c r="F20" s="53"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1647,15 +1647,15 @@
       <c r="Y20" s="1"/>
     </row>
     <row r="21" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B21" s="32" t="s">
+      <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="54" t="s">
+      <c r="C21" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
-      <c r="F21" s="56"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="25"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1677,15 +1677,15 @@
       <c r="Y21" s="1"/>
     </row>
     <row r="22" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B22" s="32" t="s">
+      <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="54" t="s">
+      <c r="C22" s="23" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="55"/>
-      <c r="E22" s="55"/>
-      <c r="F22" s="56"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="25"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1707,15 +1707,15 @@
       <c r="Y22" s="1"/>
     </row>
     <row r="23" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B23" s="32" t="s">
+      <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="57" t="s">
+      <c r="C23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="58"/>
-      <c r="E23" s="58"/>
-      <c r="F23" s="59"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1737,15 +1737,15 @@
       <c r="Y23" s="1"/>
     </row>
     <row r="24" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B24" s="32" t="s">
+      <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="54" t="s">
+      <c r="C24" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="55"/>
-      <c r="E24" s="55"/>
-      <c r="F24" s="56"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="25"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1767,15 +1767,15 @@
       <c r="Y24" s="1"/>
     </row>
     <row r="25" spans="2:25" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B25" s="32" t="s">
+      <c r="B25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="54" t="s">
+      <c r="C25" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
-      <c r="F25" s="56"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="25"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1798,6 +1798,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="R3:X3"/>
+    <mergeCell ref="K3:Q3"/>
     <mergeCell ref="C25:F25"/>
     <mergeCell ref="C15:F15"/>
     <mergeCell ref="C16:F16"/>
@@ -1809,20 +1818,11 @@
     <mergeCell ref="C23:F23"/>
     <mergeCell ref="C24:F24"/>
     <mergeCell ref="C8:F8"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="R3:X3"/>
-    <mergeCell ref="K3:Q3"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C18:F18"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,57 +1857,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="16" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="16" t="s">
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="18"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="34"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2001,11 +2001,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,12 +2101,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2142,12 +2142,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2183,12 +2183,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2224,12 +2224,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2265,12 +2265,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2304,10 +2304,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2341,10 +2341,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2378,10 +2378,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2415,10 +2415,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2452,10 +2452,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2489,10 +2489,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -2526,16 +2526,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2544,6 +2534,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2577,57 +2577,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="16" t="s">
+      <c r="G3" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="17"/>
-      <c r="I3" s="17"/>
-      <c r="J3" s="17"/>
-      <c r="K3" s="17"/>
-      <c r="L3" s="16" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="33"/>
+      <c r="J3" s="33"/>
+      <c r="K3" s="33"/>
+      <c r="L3" s="32" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="17"/>
-      <c r="N3" s="17"/>
-      <c r="O3" s="17"/>
-      <c r="P3" s="17"/>
-      <c r="Q3" s="17"/>
-      <c r="R3" s="18"/>
-      <c r="S3" s="16" t="s">
+      <c r="M3" s="33"/>
+      <c r="N3" s="33"/>
+      <c r="O3" s="33"/>
+      <c r="P3" s="33"/>
+      <c r="Q3" s="33"/>
+      <c r="R3" s="34"/>
+      <c r="S3" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="17"/>
-      <c r="U3" s="17"/>
-      <c r="V3" s="17"/>
-      <c r="W3" s="17"/>
-      <c r="X3" s="17"/>
-      <c r="Y3" s="18"/>
-      <c r="Z3" s="16" t="s">
+      <c r="T3" s="33"/>
+      <c r="U3" s="33"/>
+      <c r="V3" s="33"/>
+      <c r="W3" s="33"/>
+      <c r="X3" s="33"/>
+      <c r="Y3" s="34"/>
+      <c r="Z3" s="32" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="17"/>
-      <c r="AB3" s="17"/>
-      <c r="AC3" s="17"/>
-      <c r="AD3" s="17"/>
-      <c r="AE3" s="17"/>
-      <c r="AF3" s="18"/>
-      <c r="AG3" s="16" t="s">
+      <c r="AA3" s="33"/>
+      <c r="AB3" s="33"/>
+      <c r="AC3" s="33"/>
+      <c r="AD3" s="33"/>
+      <c r="AE3" s="33"/>
+      <c r="AF3" s="34"/>
+      <c r="AG3" s="32" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="17"/>
-      <c r="AI3" s="17"/>
-      <c r="AJ3" s="18"/>
+      <c r="AH3" s="33"/>
+      <c r="AI3" s="33"/>
+      <c r="AJ3" s="34"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="20" t="s">
+      <c r="B4" s="44" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="22" t="s">
+      <c r="C4" s="46" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="24"/>
+      <c r="D4" s="47"/>
+      <c r="E4" s="47"/>
+      <c r="F4" s="48"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2721,11 +2721,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="21"/>
-      <c r="C5" s="25"/>
-      <c r="D5" s="26"/>
-      <c r="E5" s="26"/>
-      <c r="F5" s="27"/>
+      <c r="B5" s="45"/>
+      <c r="C5" s="49"/>
+      <c r="D5" s="50"/>
+      <c r="E5" s="50"/>
+      <c r="F5" s="51"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2821,12 +2821,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="16" t="s">
+      <c r="C6" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17"/>
-      <c r="F6" s="18"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33"/>
+      <c r="F6" s="34"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2862,12 +2862,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="16" t="s">
+      <c r="C7" s="32" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="17"/>
-      <c r="E7" s="17"/>
-      <c r="F7" s="18"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="34"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2903,12 +2903,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="16" t="s">
+      <c r="C8" s="32" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17"/>
-      <c r="F8" s="18"/>
+      <c r="D8" s="33"/>
+      <c r="E8" s="33"/>
+      <c r="F8" s="34"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2944,12 +2944,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="16" t="s">
+      <c r="C9" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="17"/>
-      <c r="E9" s="17"/>
-      <c r="F9" s="18"/>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="34"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2985,12 +2985,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="16" t="s">
+      <c r="C10" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="17"/>
-      <c r="E10" s="17"/>
-      <c r="F10" s="18"/>
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="34"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3024,10 +3024,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="16"/>
-      <c r="D11" s="17"/>
-      <c r="E11" s="17"/>
-      <c r="F11" s="18"/>
+      <c r="C11" s="32"/>
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="34"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3061,10 +3061,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="16"/>
-      <c r="D12" s="17"/>
-      <c r="E12" s="17"/>
-      <c r="F12" s="18"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3098,10 +3098,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="16"/>
-      <c r="D13" s="17"/>
-      <c r="E13" s="17"/>
-      <c r="F13" s="18"/>
+      <c r="C13" s="32"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3135,10 +3135,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="16"/>
-      <c r="D14" s="17"/>
-      <c r="E14" s="17"/>
-      <c r="F14" s="18"/>
+      <c r="C14" s="32"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3172,10 +3172,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="16"/>
-      <c r="D15" s="17"/>
-      <c r="E15" s="17"/>
-      <c r="F15" s="18"/>
+      <c r="C15" s="32"/>
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3209,10 +3209,10 @@
     </row>
     <row r="16" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B16" s="3"/>
-      <c r="C16" s="19"/>
-      <c r="D16" s="19"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="19"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="61"/>
+      <c r="E16" s="61"/>
+      <c r="F16" s="61"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="I16" s="1"/>
@@ -3246,11 +3246,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -3264,6 +3259,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2547436D-CD6C-4FCD-8EBC-252017EE3794}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -207,7 +206,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -588,6 +587,75 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -606,24 +674,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -649,57 +699,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1018,11 +1017,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="Q7" sqref="Q7"/>
+      <selection activeCell="AB21" sqref="AB21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,44 +1043,44 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="34"/>
-      <c r="K3" s="32" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="33"/>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="34"/>
-      <c r="R3" s="32" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="33"/>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="34"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -1141,11 +1140,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1208,12 +1207,12 @@
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="52" t="s">
+      <c r="C6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="53"/>
-      <c r="E6" s="53"/>
-      <c r="F6" s="54"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1238,12 +1237,12 @@
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="52" t="s">
+      <c r="C7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
-      <c r="F7" s="54"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1268,12 +1267,12 @@
       <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1298,12 +1297,12 @@
       <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1330,12 +1329,12 @@
       <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1360,12 +1359,12 @@
       <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1390,12 +1389,12 @@
       <c r="B12" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="29" t="s">
+      <c r="C12" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="31"/>
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="34"/>
       <c r="G12" s="1"/>
       <c r="H12" s="15"/>
       <c r="I12" s="1"/>
@@ -1420,12 +1419,12 @@
       <c r="B13" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C13" s="29" t="s">
+      <c r="C13" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="31"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="34"/>
       <c r="H13" s="1"/>
       <c r="J13" s="1"/>
       <c r="K13" s="1"/>
@@ -1445,12 +1444,12 @@
       <c r="B14" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C14" s="29" t="s">
+      <c r="C14" s="32" t="s">
         <v>29</v>
       </c>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="31"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="1"/>
       <c r="H14" s="15"/>
       <c r="I14" s="1"/>
@@ -1475,12 +1474,12 @@
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="26" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="28"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1502,12 +1501,12 @@
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="26" t="s">
+      <c r="C16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="28"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
@@ -1530,12 +1529,12 @@
       <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="58" t="s">
+      <c r="C17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="59"/>
-      <c r="E17" s="59"/>
-      <c r="F17" s="60"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1560,12 +1559,12 @@
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="55" t="s">
+      <c r="C18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="56"/>
-      <c r="E18" s="56"/>
-      <c r="F18" s="57"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1590,12 +1589,12 @@
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="55" t="s">
+      <c r="C19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="56"/>
-      <c r="E19" s="56"/>
-      <c r="F19" s="57"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1620,12 +1619,12 @@
       <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1650,12 +1649,12 @@
       <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="23" t="s">
+      <c r="C21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="25"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1668,7 +1667,7 @@
       <c r="P21" s="1"/>
       <c r="Q21" s="1"/>
       <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
+      <c r="S21" s="21"/>
       <c r="T21" s="1"/>
       <c r="U21" s="1"/>
       <c r="V21" s="1"/>
@@ -1680,12 +1679,12 @@
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="23" t="s">
+      <c r="C22" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="25"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1710,12 +1709,12 @@
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1740,12 +1739,12 @@
       <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="23" t="s">
+      <c r="C24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="25"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1770,12 +1769,12 @@
       <c r="B25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="23" t="s">
+      <c r="C25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="25"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1798,13 +1797,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="C25:F25"/>
@@ -1821,6 +1813,13 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
     <mergeCell ref="C12:F12"/>
     <mergeCell ref="C18:F18"/>
   </mergeCells>
@@ -1831,7 +1830,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1857,57 +1856,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="32" t="s">
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="32" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="34"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2001,11 +2000,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,12 +2100,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2142,12 +2141,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2183,12 +2182,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2224,12 +2223,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2265,12 +2264,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2304,10 +2303,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2341,10 +2340,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2378,10 +2377,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2415,10 +2414,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2452,10 +2451,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2526,6 +2525,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2534,16 +2543,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2551,7 +2550,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2577,57 +2576,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="32" t="s">
+      <c r="G3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="33"/>
-      <c r="J3" s="33"/>
-      <c r="K3" s="33"/>
-      <c r="L3" s="32" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="33"/>
-      <c r="N3" s="33"/>
-      <c r="O3" s="33"/>
-      <c r="P3" s="33"/>
-      <c r="Q3" s="33"/>
-      <c r="R3" s="34"/>
-      <c r="S3" s="32" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="33"/>
-      <c r="U3" s="33"/>
-      <c r="V3" s="33"/>
-      <c r="W3" s="33"/>
-      <c r="X3" s="33"/>
-      <c r="Y3" s="34"/>
-      <c r="Z3" s="32" t="s">
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="33"/>
-      <c r="AB3" s="33"/>
-      <c r="AC3" s="33"/>
-      <c r="AD3" s="33"/>
-      <c r="AE3" s="33"/>
-      <c r="AF3" s="34"/>
-      <c r="AG3" s="32" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="33"/>
-      <c r="AI3" s="33"/>
-      <c r="AJ3" s="34"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="44" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="46" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="47"/>
-      <c r="E4" s="47"/>
-      <c r="F4" s="48"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2721,11 +2720,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="45"/>
-      <c r="C5" s="49"/>
-      <c r="D5" s="50"/>
-      <c r="E5" s="50"/>
-      <c r="F5" s="51"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2821,12 +2820,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="32" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="33"/>
-      <c r="E6" s="33"/>
-      <c r="F6" s="34"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2862,12 +2861,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="32" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="33"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="34"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2903,12 +2902,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="33"/>
-      <c r="E8" s="33"/>
-      <c r="F8" s="34"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2944,12 +2943,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="33"/>
-      <c r="E9" s="33"/>
-      <c r="F9" s="34"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2985,12 +2984,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33"/>
-      <c r="F10" s="34"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3024,10 +3023,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="32"/>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33"/>
-      <c r="F11" s="34"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3061,10 +3060,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="32"/>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33"/>
-      <c r="F12" s="34"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3098,10 +3097,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="32"/>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33"/>
-      <c r="F13" s="34"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3135,10 +3134,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="32"/>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33"/>
-      <c r="F14" s="34"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3172,10 +3171,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="32"/>
-      <c r="D15" s="33"/>
-      <c r="E15" s="33"/>
-      <c r="F15" s="34"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3246,6 +3245,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -3259,11 +3263,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3271,7 +3270,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="14420"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB6330-A70E-49C2-AE36-F2CC9DF2E9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="8550" yWindow="270" windowWidth="18165" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -206,7 +207,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -587,6 +588,69 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -614,15 +678,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -645,60 +700,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1017,11 +1018,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+      <selection activeCell="K2" sqref="K2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1043,44 +1044,44 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="45"/>
-      <c r="K3" s="43" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="25"/>
+      <c r="K3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="44"/>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="45"/>
-      <c r="R3" s="43" t="s">
+      <c r="L3" s="24"/>
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="25"/>
+      <c r="R3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="44"/>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="45"/>
+      <c r="S3" s="24"/>
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="25"/>
       <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -1140,11 +1141,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1207,12 +1208,12 @@
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="26" t="s">
+      <c r="C6" s="47" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27"/>
-      <c r="F6" s="28"/>
+      <c r="D6" s="48"/>
+      <c r="E6" s="48"/>
+      <c r="F6" s="49"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1224,7 +1225,7 @@
       <c r="O6" s="21"/>
       <c r="P6" s="21"/>
       <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
+      <c r="R6" s="21"/>
       <c r="S6" s="1"/>
       <c r="T6" s="1"/>
       <c r="U6" s="1"/>
@@ -1237,12 +1238,12 @@
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="26" t="s">
+      <c r="C7" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="28"/>
+      <c r="D7" s="48"/>
+      <c r="E7" s="48"/>
+      <c r="F7" s="49"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1253,7 +1254,7 @@
       <c r="N7" s="1"/>
       <c r="O7" s="1"/>
       <c r="P7" s="1"/>
-      <c r="Q7" s="21"/>
+      <c r="Q7" s="15"/>
       <c r="R7" s="1"/>
       <c r="S7" s="1"/>
       <c r="T7" s="1"/>
@@ -1267,12 +1268,12 @@
       <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="58" t="s">
+      <c r="C8" s="41" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="59"/>
-      <c r="E8" s="59"/>
-      <c r="F8" s="60"/>
+      <c r="D8" s="42"/>
+      <c r="E8" s="42"/>
+      <c r="F8" s="43"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1297,12 +1298,12 @@
       <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="58" t="s">
+      <c r="C9" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="59"/>
-      <c r="E9" s="59"/>
-      <c r="F9" s="60"/>
+      <c r="D9" s="42"/>
+      <c r="E9" s="42"/>
+      <c r="F9" s="43"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1329,12 +1330,12 @@
       <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="58" t="s">
+      <c r="C10" s="41" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="59"/>
-      <c r="E10" s="59"/>
-      <c r="F10" s="60"/>
+      <c r="D10" s="42"/>
+      <c r="E10" s="42"/>
+      <c r="F10" s="43"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1359,12 +1360,12 @@
       <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="58" t="s">
+      <c r="C11" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="59"/>
-      <c r="E11" s="59"/>
-      <c r="F11" s="60"/>
+      <c r="D11" s="42"/>
+      <c r="E11" s="42"/>
+      <c r="F11" s="43"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1474,12 +1475,12 @@
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="49" t="s">
+      <c r="C15" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="50"/>
-      <c r="E15" s="50"/>
-      <c r="F15" s="51"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="31"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1501,12 +1502,12 @@
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="49" t="s">
+      <c r="C16" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="50"/>
-      <c r="E16" s="50"/>
-      <c r="F16" s="51"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="31"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
@@ -1529,12 +1530,12 @@
       <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="29" t="s">
+      <c r="C17" s="50" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="31"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="51"/>
+      <c r="F17" s="52"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1559,12 +1560,12 @@
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="23" t="s">
+      <c r="C18" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="25"/>
+      <c r="D18" s="45"/>
+      <c r="E18" s="45"/>
+      <c r="F18" s="46"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1589,12 +1590,12 @@
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="23" t="s">
+      <c r="C19" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="25"/>
+      <c r="D19" s="45"/>
+      <c r="E19" s="45"/>
+      <c r="F19" s="46"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1619,12 +1620,12 @@
       <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="52" t="s">
+      <c r="C20" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="53"/>
-      <c r="E20" s="53"/>
-      <c r="F20" s="54"/>
+      <c r="D20" s="36"/>
+      <c r="E20" s="36"/>
+      <c r="F20" s="37"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1649,12 +1650,12 @@
       <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="46" t="s">
+      <c r="C21" s="26" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="47"/>
-      <c r="E21" s="47"/>
-      <c r="F21" s="48"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="27"/>
+      <c r="F21" s="28"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1679,12 +1680,12 @@
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="46" t="s">
+      <c r="C22" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="47"/>
-      <c r="E22" s="47"/>
-      <c r="F22" s="48"/>
+      <c r="D22" s="27"/>
+      <c r="E22" s="27"/>
+      <c r="F22" s="28"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1709,12 +1710,12 @@
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="55" t="s">
+      <c r="C23" s="38" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="56"/>
-      <c r="E23" s="56"/>
-      <c r="F23" s="57"/>
+      <c r="D23" s="39"/>
+      <c r="E23" s="39"/>
+      <c r="F23" s="40"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1739,12 +1740,12 @@
       <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="46" t="s">
+      <c r="C24" s="26" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="27"/>
+      <c r="F24" s="28"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1769,12 +1770,12 @@
       <c r="B25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="46" t="s">
+      <c r="C25" s="26" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="47"/>
-      <c r="E25" s="47"/>
-      <c r="F25" s="48"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="27"/>
+      <c r="F25" s="28"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1797,6 +1798,15 @@
     </row>
   </sheetData>
   <mergeCells count="25">
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C18:F18"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="C25:F25"/>
@@ -1813,15 +1823,6 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1830,7 +1831,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1856,57 +1857,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="43" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="43" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="43" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="43" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="45"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2000,11 +2001,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2100,12 +2101,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2141,12 +2142,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2182,12 +2183,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2223,12 +2224,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2264,12 +2265,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2303,10 +2304,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2340,10 +2341,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2377,10 +2378,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2414,10 +2415,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2451,10 +2452,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2525,16 +2526,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2543,6 +2534,16 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2550,7 +2551,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B2:AK16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2576,57 +2577,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="43" t="s">
+      <c r="G3" s="23" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="44"/>
-      <c r="I3" s="44"/>
-      <c r="J3" s="44"/>
-      <c r="K3" s="44"/>
-      <c r="L3" s="43" t="s">
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" s="24"/>
+      <c r="K3" s="24"/>
+      <c r="L3" s="23" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="44"/>
-      <c r="N3" s="44"/>
-      <c r="O3" s="44"/>
-      <c r="P3" s="44"/>
-      <c r="Q3" s="44"/>
-      <c r="R3" s="45"/>
-      <c r="S3" s="43" t="s">
+      <c r="M3" s="24"/>
+      <c r="N3" s="24"/>
+      <c r="O3" s="24"/>
+      <c r="P3" s="24"/>
+      <c r="Q3" s="24"/>
+      <c r="R3" s="25"/>
+      <c r="S3" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="44"/>
-      <c r="U3" s="44"/>
-      <c r="V3" s="44"/>
-      <c r="W3" s="44"/>
-      <c r="X3" s="44"/>
-      <c r="Y3" s="45"/>
-      <c r="Z3" s="43" t="s">
+      <c r="T3" s="24"/>
+      <c r="U3" s="24"/>
+      <c r="V3" s="24"/>
+      <c r="W3" s="24"/>
+      <c r="X3" s="24"/>
+      <c r="Y3" s="25"/>
+      <c r="Z3" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="44"/>
-      <c r="AB3" s="44"/>
-      <c r="AC3" s="44"/>
-      <c r="AD3" s="44"/>
-      <c r="AE3" s="44"/>
-      <c r="AF3" s="45"/>
-      <c r="AG3" s="43" t="s">
+      <c r="AA3" s="24"/>
+      <c r="AB3" s="24"/>
+      <c r="AC3" s="24"/>
+      <c r="AD3" s="24"/>
+      <c r="AE3" s="24"/>
+      <c r="AF3" s="25"/>
+      <c r="AG3" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="44"/>
-      <c r="AI3" s="44"/>
-      <c r="AJ3" s="45"/>
+      <c r="AH3" s="24"/>
+      <c r="AI3" s="24"/>
+      <c r="AJ3" s="25"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="35" t="s">
+      <c r="B4" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C4" s="55" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="38"/>
-      <c r="E4" s="38"/>
-      <c r="F4" s="39"/>
+      <c r="D4" s="56"/>
+      <c r="E4" s="56"/>
+      <c r="F4" s="57"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2720,11 +2721,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="36"/>
-      <c r="C5" s="40"/>
-      <c r="D5" s="41"/>
-      <c r="E5" s="41"/>
-      <c r="F5" s="42"/>
+      <c r="B5" s="54"/>
+      <c r="C5" s="58"/>
+      <c r="D5" s="59"/>
+      <c r="E5" s="59"/>
+      <c r="F5" s="60"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2820,12 +2821,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="43" t="s">
+      <c r="C6" s="23" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44"/>
-      <c r="F6" s="45"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="25"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2861,12 +2862,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="43" t="s">
+      <c r="C7" s="23" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="44"/>
-      <c r="E7" s="44"/>
-      <c r="F7" s="45"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="25"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2902,12 +2903,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="43" t="s">
+      <c r="C8" s="23" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="44"/>
-      <c r="E8" s="44"/>
-      <c r="F8" s="45"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="25"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2943,12 +2944,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="43" t="s">
+      <c r="C9" s="23" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="44"/>
-      <c r="E9" s="44"/>
-      <c r="F9" s="45"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="25"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2984,12 +2985,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="43" t="s">
+      <c r="C10" s="23" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="44"/>
-      <c r="E10" s="44"/>
-      <c r="F10" s="45"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="25"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3023,10 +3024,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="43"/>
-      <c r="D11" s="44"/>
-      <c r="E11" s="44"/>
-      <c r="F11" s="45"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="25"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3060,10 +3061,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="43"/>
-      <c r="D12" s="44"/>
-      <c r="E12" s="44"/>
-      <c r="F12" s="45"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="25"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3097,10 +3098,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="43"/>
-      <c r="D13" s="44"/>
-      <c r="E13" s="44"/>
-      <c r="F13" s="45"/>
+      <c r="C13" s="23"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="25"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3134,10 +3135,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="43"/>
-      <c r="D14" s="44"/>
-      <c r="E14" s="44"/>
-      <c r="F14" s="45"/>
+      <c r="C14" s="23"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="25"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3171,10 +3172,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="43"/>
-      <c r="D15" s="44"/>
-      <c r="E15" s="44"/>
-      <c r="F15" s="45"/>
+      <c r="C15" s="23"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="25"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3245,11 +3246,6 @@
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -3263,6 +3259,11 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -3270,7 +3271,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>

--- a/계획표.xlsx
+++ b/계획표.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\whdns\OneDrive\바탕 화면\기획\TeamProject1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\프로젝트\TeamProject1\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3FEB6330-A70E-49C2-AE36-F2CC9DF2E9DB}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA4A3EE-C654-4D6D-B1CF-4256B2CBDF41}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8550" yWindow="270" windowWidth="18165" windowHeight="14250" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="8월" sheetId="1" r:id="rId1"/>
@@ -518,7 +518,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="62">
+  <cellXfs count="63">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -588,6 +588,66 @@
     <xf numFmtId="0" fontId="2" fillId="10" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -615,15 +675,6 @@
     <xf numFmtId="0" fontId="0" fillId="12" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="13" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -651,59 +702,11 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="12" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="1" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1022,7 +1025,7 @@
   <dimension ref="B2:AA25"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="R19" sqref="R19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1044,44 +1047,44 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="25"/>
-      <c r="K3" s="23" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="45"/>
+      <c r="K3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="L3" s="24"/>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="25"/>
-      <c r="R3" s="23" t="s">
+      <c r="L3" s="44"/>
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="45"/>
+      <c r="R3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="S3" s="24"/>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="25"/>
+      <c r="S3" s="44"/>
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="45"/>
       <c r="Y3" s="4" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="4" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>13</v>
       </c>
@@ -1141,11 +1144,11 @@
       </c>
     </row>
     <row r="5" spans="2:27" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>1</v>
       </c>
@@ -1208,12 +1211,12 @@
       <c r="B6" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="26" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="48"/>
-      <c r="F6" s="49"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27"/>
+      <c r="F6" s="28"/>
       <c r="G6" s="21"/>
       <c r="H6" s="21"/>
       <c r="I6" s="21"/>
@@ -1238,12 +1241,12 @@
       <c r="B7" s="16" t="s">
         <v>13</v>
       </c>
-      <c r="C7" s="47" t="s">
+      <c r="C7" s="26" t="s">
         <v>24</v>
       </c>
-      <c r="D7" s="48"/>
-      <c r="E7" s="48"/>
-      <c r="F7" s="49"/>
+      <c r="D7" s="27"/>
+      <c r="E7" s="27"/>
+      <c r="F7" s="28"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1268,12 +1271,12 @@
       <c r="B8" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="41" t="s">
+      <c r="C8" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="D8" s="42"/>
-      <c r="E8" s="42"/>
-      <c r="F8" s="43"/>
+      <c r="D8" s="59"/>
+      <c r="E8" s="59"/>
+      <c r="F8" s="60"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -1298,12 +1301,12 @@
       <c r="B9" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C9" s="41" t="s">
+      <c r="C9" s="58" t="s">
         <v>25</v>
       </c>
-      <c r="D9" s="42"/>
-      <c r="E9" s="42"/>
-      <c r="F9" s="43"/>
+      <c r="D9" s="59"/>
+      <c r="E9" s="59"/>
+      <c r="F9" s="60"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1330,12 +1333,12 @@
       <c r="B10" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C10" s="41" t="s">
+      <c r="C10" s="58" t="s">
         <v>26</v>
       </c>
-      <c r="D10" s="42"/>
-      <c r="E10" s="42"/>
-      <c r="F10" s="43"/>
+      <c r="D10" s="59"/>
+      <c r="E10" s="59"/>
+      <c r="F10" s="60"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -1360,12 +1363,12 @@
       <c r="B11" s="17" t="s">
         <v>15</v>
       </c>
-      <c r="C11" s="41" t="s">
+      <c r="C11" s="58" t="s">
         <v>27</v>
       </c>
-      <c r="D11" s="42"/>
-      <c r="E11" s="42"/>
-      <c r="F11" s="43"/>
+      <c r="D11" s="59"/>
+      <c r="E11" s="59"/>
+      <c r="F11" s="60"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -1475,12 +1478,12 @@
       <c r="B15" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C15" s="29" t="s">
+      <c r="C15" s="49" t="s">
         <v>31</v>
       </c>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="31"/>
+      <c r="D15" s="50"/>
+      <c r="E15" s="50"/>
+      <c r="F15" s="51"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
       <c r="J15" s="1"/>
@@ -1502,12 +1505,12 @@
       <c r="B16" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C16" s="29" t="s">
+      <c r="C16" s="49" t="s">
         <v>32</v>
       </c>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="31"/>
+      <c r="D16" s="50"/>
+      <c r="E16" s="50"/>
+      <c r="F16" s="51"/>
       <c r="G16" s="1"/>
       <c r="H16" s="1"/>
       <c r="J16" s="1"/>
@@ -1530,12 +1533,12 @@
       <c r="B17" s="18" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="50" t="s">
+      <c r="C17" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="51"/>
-      <c r="E17" s="51"/>
-      <c r="F17" s="52"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="31"/>
       <c r="G17" s="1"/>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1560,12 +1563,12 @@
       <c r="B18" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="44" t="s">
+      <c r="C18" s="23" t="s">
         <v>34</v>
       </c>
-      <c r="D18" s="45"/>
-      <c r="E18" s="45"/>
-      <c r="F18" s="46"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="25"/>
       <c r="G18" s="1"/>
       <c r="H18" s="1"/>
       <c r="I18" s="1"/>
@@ -1578,7 +1581,7 @@
       <c r="P18" s="1"/>
       <c r="Q18" s="1"/>
       <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
+      <c r="S18" s="62"/>
       <c r="T18" s="1"/>
       <c r="U18" s="1"/>
       <c r="V18" s="1"/>
@@ -1590,12 +1593,12 @@
       <c r="B19" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C19" s="44" t="s">
+      <c r="C19" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="D19" s="45"/>
-      <c r="E19" s="45"/>
-      <c r="F19" s="46"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="25"/>
       <c r="G19" s="1"/>
       <c r="H19" s="1"/>
       <c r="I19" s="1"/>
@@ -1608,7 +1611,7 @@
       <c r="P19" s="1"/>
       <c r="Q19" s="1"/>
       <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
+      <c r="S19" s="62"/>
       <c r="T19" s="1"/>
       <c r="U19" s="1"/>
       <c r="V19" s="1"/>
@@ -1620,12 +1623,12 @@
       <c r="B20" s="19" t="s">
         <v>17</v>
       </c>
-      <c r="C20" s="35" t="s">
+      <c r="C20" s="52" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="36"/>
-      <c r="E20" s="36"/>
-      <c r="F20" s="37"/>
+      <c r="D20" s="53"/>
+      <c r="E20" s="53"/>
+      <c r="F20" s="54"/>
       <c r="G20" s="1"/>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1650,12 +1653,12 @@
       <c r="B21" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C21" s="26" t="s">
+      <c r="C21" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="D21" s="27"/>
-      <c r="E21" s="27"/>
-      <c r="F21" s="28"/>
+      <c r="D21" s="47"/>
+      <c r="E21" s="47"/>
+      <c r="F21" s="48"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
       <c r="I21" s="1"/>
@@ -1680,12 +1683,12 @@
       <c r="B22" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C22" s="26" t="s">
+      <c r="C22" s="46" t="s">
         <v>38</v>
       </c>
-      <c r="D22" s="27"/>
-      <c r="E22" s="27"/>
-      <c r="F22" s="28"/>
+      <c r="D22" s="47"/>
+      <c r="E22" s="47"/>
+      <c r="F22" s="48"/>
       <c r="G22" s="1"/>
       <c r="H22" s="1"/>
       <c r="I22" s="1"/>
@@ -1710,12 +1713,12 @@
       <c r="B23" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C23" s="38" t="s">
+      <c r="C23" s="55" t="s">
         <v>39</v>
       </c>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="40"/>
+      <c r="D23" s="56"/>
+      <c r="E23" s="56"/>
+      <c r="F23" s="57"/>
       <c r="G23" s="1"/>
       <c r="H23" s="1"/>
       <c r="I23" s="1"/>
@@ -1740,12 +1743,12 @@
       <c r="B24" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C24" s="26" t="s">
+      <c r="C24" s="46" t="s">
         <v>40</v>
       </c>
-      <c r="D24" s="27"/>
-      <c r="E24" s="27"/>
-      <c r="F24" s="28"/>
+      <c r="D24" s="47"/>
+      <c r="E24" s="47"/>
+      <c r="F24" s="48"/>
       <c r="G24" s="1"/>
       <c r="H24" s="1"/>
       <c r="I24" s="1"/>
@@ -1770,12 +1773,12 @@
       <c r="B25" s="20" t="s">
         <v>18</v>
       </c>
-      <c r="C25" s="26" t="s">
+      <c r="C25" s="46" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="28"/>
+      <c r="D25" s="47"/>
+      <c r="E25" s="47"/>
+      <c r="F25" s="48"/>
       <c r="G25" s="1"/>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -1798,15 +1801,6 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C19:F19"/>
-    <mergeCell ref="C7:F7"/>
-    <mergeCell ref="C17:F17"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="C4:F5"/>
-    <mergeCell ref="C6:F6"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C18:F18"/>
     <mergeCell ref="R3:X3"/>
     <mergeCell ref="K3:Q3"/>
     <mergeCell ref="C25:F25"/>
@@ -1823,6 +1817,15 @@
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
     <mergeCell ref="C11:F11"/>
+    <mergeCell ref="C19:F19"/>
+    <mergeCell ref="C7:F7"/>
+    <mergeCell ref="C17:F17"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="C4:F5"/>
+    <mergeCell ref="C6:F6"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C18:F18"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1857,57 +1860,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="23" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="23" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="23" t="s">
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="23" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="25"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2001,11 +2004,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2101,12 +2104,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2142,12 +2145,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2183,12 +2186,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2224,12 +2227,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2265,12 +2268,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -2304,10 +2307,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -2341,10 +2344,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -2378,10 +2381,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -2415,10 +2418,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -2452,10 +2455,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -2526,6 +2529,16 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="Z3:AF3"/>
+    <mergeCell ref="AG3:AJ3"/>
+    <mergeCell ref="G3:K3"/>
+    <mergeCell ref="L3:R3"/>
+    <mergeCell ref="S3:Y3"/>
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="C11:F11"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -2534,16 +2547,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
-    <mergeCell ref="Z3:AF3"/>
-    <mergeCell ref="AG3:AJ3"/>
-    <mergeCell ref="G3:K3"/>
-    <mergeCell ref="L3:R3"/>
-    <mergeCell ref="S3:Y3"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2577,57 +2580,57 @@
       <c r="D3" s="8"/>
       <c r="E3" s="11"/>
       <c r="F3" s="12"/>
-      <c r="G3" s="23" t="s">
+      <c r="G3" s="43" t="s">
         <v>23</v>
       </c>
-      <c r="H3" s="24"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
-      <c r="K3" s="24"/>
-      <c r="L3" s="23" t="s">
+      <c r="H3" s="44"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
+      <c r="K3" s="44"/>
+      <c r="L3" s="43" t="s">
         <v>8</v>
       </c>
-      <c r="M3" s="24"/>
-      <c r="N3" s="24"/>
-      <c r="O3" s="24"/>
-      <c r="P3" s="24"/>
-      <c r="Q3" s="24"/>
-      <c r="R3" s="25"/>
-      <c r="S3" s="23" t="s">
+      <c r="M3" s="44"/>
+      <c r="N3" s="44"/>
+      <c r="O3" s="44"/>
+      <c r="P3" s="44"/>
+      <c r="Q3" s="44"/>
+      <c r="R3" s="45"/>
+      <c r="S3" s="43" t="s">
         <v>9</v>
       </c>
-      <c r="T3" s="24"/>
-      <c r="U3" s="24"/>
-      <c r="V3" s="24"/>
-      <c r="W3" s="24"/>
-      <c r="X3" s="24"/>
-      <c r="Y3" s="25"/>
-      <c r="Z3" s="23" t="s">
+      <c r="T3" s="44"/>
+      <c r="U3" s="44"/>
+      <c r="V3" s="44"/>
+      <c r="W3" s="44"/>
+      <c r="X3" s="44"/>
+      <c r="Y3" s="45"/>
+      <c r="Z3" s="43" t="s">
         <v>10</v>
       </c>
-      <c r="AA3" s="24"/>
-      <c r="AB3" s="24"/>
-      <c r="AC3" s="24"/>
-      <c r="AD3" s="24"/>
-      <c r="AE3" s="24"/>
-      <c r="AF3" s="25"/>
-      <c r="AG3" s="23" t="s">
+      <c r="AA3" s="44"/>
+      <c r="AB3" s="44"/>
+      <c r="AC3" s="44"/>
+      <c r="AD3" s="44"/>
+      <c r="AE3" s="44"/>
+      <c r="AF3" s="45"/>
+      <c r="AG3" s="43" t="s">
         <v>11</v>
       </c>
-      <c r="AH3" s="24"/>
-      <c r="AI3" s="24"/>
-      <c r="AJ3" s="25"/>
+      <c r="AH3" s="44"/>
+      <c r="AI3" s="44"/>
+      <c r="AJ3" s="45"/>
     </row>
     <row r="4" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B4" s="53" t="s">
+      <c r="B4" s="35" t="s">
         <v>12</v>
       </c>
-      <c r="C4" s="55" t="s">
+      <c r="C4" s="37" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="56"/>
-      <c r="E4" s="56"/>
-      <c r="F4" s="57"/>
+      <c r="D4" s="38"/>
+      <c r="E4" s="38"/>
+      <c r="F4" s="39"/>
       <c r="G4" s="3">
         <v>1</v>
       </c>
@@ -2721,11 +2724,11 @@
       <c r="AK4" s="7"/>
     </row>
     <row r="5" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B5" s="54"/>
-      <c r="C5" s="58"/>
-      <c r="D5" s="59"/>
-      <c r="E5" s="59"/>
-      <c r="F5" s="60"/>
+      <c r="B5" s="36"/>
+      <c r="C5" s="40"/>
+      <c r="D5" s="41"/>
+      <c r="E5" s="41"/>
+      <c r="F5" s="42"/>
       <c r="G5" s="3" t="s">
         <v>4</v>
       </c>
@@ -2821,12 +2824,12 @@
       <c r="B6" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="23" t="s">
+      <c r="C6" s="43" t="s">
         <v>14</v>
       </c>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="25"/>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44"/>
+      <c r="F6" s="45"/>
       <c r="G6" s="13"/>
       <c r="H6" s="1"/>
       <c r="I6" s="1"/>
@@ -2862,12 +2865,12 @@
       <c r="B7" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C7" s="23" t="s">
+      <c r="C7" s="43" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="25"/>
+      <c r="D7" s="44"/>
+      <c r="E7" s="44"/>
+      <c r="F7" s="45"/>
       <c r="G7" s="1"/>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -2903,12 +2906,12 @@
       <c r="B8" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C8" s="23" t="s">
+      <c r="C8" s="43" t="s">
         <v>20</v>
       </c>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="25"/>
+      <c r="D8" s="44"/>
+      <c r="E8" s="44"/>
+      <c r="F8" s="45"/>
       <c r="G8" s="1"/>
       <c r="H8" s="1"/>
       <c r="I8" s="1"/>
@@ -2944,12 +2947,12 @@
       <c r="B9" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C9" s="23" t="s">
+      <c r="C9" s="43" t="s">
         <v>21</v>
       </c>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="25"/>
+      <c r="D9" s="44"/>
+      <c r="E9" s="44"/>
+      <c r="F9" s="45"/>
       <c r="G9" s="1"/>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -2985,12 +2988,12 @@
       <c r="B10" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C10" s="23" t="s">
+      <c r="C10" s="43" t="s">
         <v>22</v>
       </c>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="25"/>
+      <c r="D10" s="44"/>
+      <c r="E10" s="44"/>
+      <c r="F10" s="45"/>
       <c r="G10" s="1"/>
       <c r="H10" s="1"/>
       <c r="I10" s="1"/>
@@ -3024,10 +3027,10 @@
     </row>
     <row r="11" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="3"/>
-      <c r="C11" s="23"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="25"/>
+      <c r="C11" s="43"/>
+      <c r="D11" s="44"/>
+      <c r="E11" s="44"/>
+      <c r="F11" s="45"/>
       <c r="G11" s="1"/>
       <c r="H11" s="1"/>
       <c r="I11" s="1"/>
@@ -3061,10 +3064,10 @@
     </row>
     <row r="12" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B12" s="3"/>
-      <c r="C12" s="23"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="25"/>
+      <c r="C12" s="43"/>
+      <c r="D12" s="44"/>
+      <c r="E12" s="44"/>
+      <c r="F12" s="45"/>
       <c r="G12" s="1"/>
       <c r="H12" s="1"/>
       <c r="I12" s="1"/>
@@ -3098,10 +3101,10 @@
     </row>
     <row r="13" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B13" s="3"/>
-      <c r="C13" s="23"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="25"/>
+      <c r="C13" s="43"/>
+      <c r="D13" s="44"/>
+      <c r="E13" s="44"/>
+      <c r="F13" s="45"/>
       <c r="G13" s="1"/>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -3135,10 +3138,10 @@
     </row>
     <row r="14" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B14" s="3"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="25"/>
+      <c r="C14" s="43"/>
+      <c r="D14" s="44"/>
+      <c r="E14" s="44"/>
+      <c r="F14" s="45"/>
       <c r="G14" s="1"/>
       <c r="H14" s="1"/>
       <c r="I14" s="1"/>
@@ -3172,10 +3175,10 @@
     </row>
     <row r="15" spans="2:37" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B15" s="3"/>
-      <c r="C15" s="23"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="25"/>
+      <c r="C15" s="43"/>
+      <c r="D15" s="44"/>
+      <c r="E15" s="44"/>
+      <c r="F15" s="45"/>
       <c r="G15" s="1"/>
       <c r="H15" s="1"/>
       <c r="I15" s="1"/>
@@ -3246,6 +3249,11 @@
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="C12:F12"/>
+    <mergeCell ref="C13:F13"/>
+    <mergeCell ref="C14:F14"/>
+    <mergeCell ref="C15:F15"/>
+    <mergeCell ref="C16:F16"/>
     <mergeCell ref="AG3:AJ3"/>
     <mergeCell ref="B4:B5"/>
     <mergeCell ref="C4:F5"/>
@@ -3259,11 +3267,6 @@
     <mergeCell ref="C8:F8"/>
     <mergeCell ref="C9:F9"/>
     <mergeCell ref="C10:F10"/>
-    <mergeCell ref="C12:F12"/>
-    <mergeCell ref="C13:F13"/>
-    <mergeCell ref="C14:F14"/>
-    <mergeCell ref="C15:F15"/>
-    <mergeCell ref="C16:F16"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
